--- a/DetectorNumeros/frecuencias/matrices_siete_10.xlsx
+++ b/DetectorNumeros/frecuencias/matrices_siete_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Escuela\7mo_semestre\Inteligencia Artificial\CodigosRepo\Programas-2do-Parcial\DetectorNumeros\frecuencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guere\Documents\Tec\7mo\IA\Programas 2do Parcial\DetectorNumeros\frecuencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BE9187-CBC1-4435-B60F-BEA7C57B5118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CBE5D-1F93-4785-93F1-225427503CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso1" sheetId="1" r:id="rId1"/>
@@ -5232,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE27B850-93E8-4920-A2AC-04B3E2B28603}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DetectorNumeros/frecuencias/matrices_siete_10.xlsx
+++ b/DetectorNumeros/frecuencias/matrices_siete_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guere\Documents\Tec\7mo\IA\Programas 2do Parcial\DetectorNumeros\frecuencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Escuela\7mo_semestre\Inteligencia Artificial\CodigosRepo\Programas-2do-Parcial\DetectorNumeros\frecuencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CBE5D-1F93-4785-93F1-225427503CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE91069C-B340-41F5-A070-8146FB436F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso1" sheetId="1" r:id="rId1"/>
@@ -380,16 +380,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="AB28" sqref="A1:AB28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="28" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2804,18 +2804,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView zoomScale="37" workbookViewId="0">
-      <selection activeCell="AL53" sqref="AL53"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3470,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3725,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3811,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3861,37 +3861,37 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -3902,7 +3902,7 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3947,37 +3947,37 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -3985,7 +3985,7 @@
       <c r="Q14">
         <v>1</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14">
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4401,16 +4401,16 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4487,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4570,16 +4570,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4653,19 +4653,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -4736,19 +4736,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4819,19 +4819,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4905,19 +4905,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -4997,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5080,13 +5080,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5220,6 +5220,608 @@
         <v>0</v>
       </c>
       <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
         <v>0</v>
       </c>
     </row>
@@ -5232,16 +5834,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE27B850-93E8-4920-A2AC-04B3E2B28603}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SUM(Caso1:Caso10!A1)</f>
         <v>0</v>
@@ -5355,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>SUM(Caso1:Caso10!A2)</f>
         <v>0</v>
@@ -5469,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>SUM(Caso1:Caso10!A3)</f>
         <v>0</v>
@@ -5583,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>SUM(Caso1:Caso10!A4)</f>
         <v>0</v>
@@ -5697,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>SUM(Caso1:Caso10!A5)</f>
         <v>0</v>
@@ -5811,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>SUM(Caso1:Caso10!A6)</f>
         <v>0</v>
@@ -5830,55 +6432,55 @@
       </c>
       <c r="E6">
         <f>SUM(Caso1:Caso10!E6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f>SUM(Caso1:Caso10!F6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f>SUM(Caso1:Caso10!G6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <f>SUM(Caso1:Caso10!H6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <f>SUM(Caso1:Caso10!I6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <f>SUM(Caso1:Caso10!J6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6">
         <f>SUM(Caso1:Caso10!K6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <f>SUM(Caso1:Caso10!L6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <f>SUM(Caso1:Caso10!M6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <f>SUM(Caso1:Caso10!N6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O6">
         <f>SUM(Caso1:Caso10!O6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P6">
         <f>SUM(Caso1:Caso10!P6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q6">
         <f>SUM(Caso1:Caso10!Q6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R6">
         <f>SUM(Caso1:Caso10!R6)</f>
@@ -5925,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>SUM(Caso1:Caso10!A7)</f>
         <v>0</v>
@@ -5944,15 +6546,15 @@
       </c>
       <c r="E7">
         <f>SUM(Caso1:Caso10!E7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <f>SUM(Caso1:Caso10!F7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f>SUM(Caso1:Caso10!G7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <f>SUM(Caso1:Caso10!H7)</f>
@@ -5996,15 +6598,15 @@
       </c>
       <c r="R7">
         <f>SUM(Caso1:Caso10!R7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <f>SUM(Caso1:Caso10!S7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7">
         <f>SUM(Caso1:Caso10!T7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f>SUM(Caso1:Caso10!U7)</f>
@@ -6039,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>SUM(Caso1:Caso10!A8)</f>
         <v>0</v>
@@ -6070,35 +6672,35 @@
       </c>
       <c r="H8">
         <f>SUM(Caso1:Caso10!H8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f>SUM(Caso1:Caso10!I8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f>SUM(Caso1:Caso10!J8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f>SUM(Caso1:Caso10!K8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f>SUM(Caso1:Caso10!L8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f>SUM(Caso1:Caso10!M8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f>SUM(Caso1:Caso10!N8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f>SUM(Caso1:Caso10!O8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f>SUM(Caso1:Caso10!P8)</f>
@@ -6110,15 +6712,15 @@
       </c>
       <c r="R8">
         <f>SUM(Caso1:Caso10!R8)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <f>SUM(Caso1:Caso10!S8)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T8">
         <f>SUM(Caso1:Caso10!T8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f>SUM(Caso1:Caso10!U8)</f>
@@ -6153,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>SUM(Caso1:Caso10!A9)</f>
         <v>0</v>
@@ -6216,23 +6818,23 @@
       </c>
       <c r="P9">
         <f>SUM(Caso1:Caso10!P9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <f>SUM(Caso1:Caso10!Q9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R9">
         <f>SUM(Caso1:Caso10!R9)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S9">
         <f>SUM(Caso1:Caso10!S9)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9">
         <f>SUM(Caso1:Caso10!T9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f>SUM(Caso1:Caso10!U9)</f>
@@ -6267,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>SUM(Caso1:Caso10!A10)</f>
         <v>0</v>
@@ -6326,11 +6928,11 @@
       </c>
       <c r="O10">
         <f>SUM(Caso1:Caso10!O10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <f>SUM(Caso1:Caso10!P10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10">
         <f>SUM(Caso1:Caso10!Q10)</f>
@@ -6338,15 +6940,15 @@
       </c>
       <c r="R10">
         <f>SUM(Caso1:Caso10!R10)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <f>SUM(Caso1:Caso10!S10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <f>SUM(Caso1:Caso10!T10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f>SUM(Caso1:Caso10!U10)</f>
@@ -6381,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SUM(Caso1:Caso10!A11)</f>
         <v>0</v>
@@ -6440,23 +7042,23 @@
       </c>
       <c r="O11">
         <f>SUM(Caso1:Caso10!O11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <f>SUM(Caso1:Caso10!P11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11">
         <f>SUM(Caso1:Caso10!Q11)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R11">
         <f>SUM(Caso1:Caso10!R11)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <f>SUM(Caso1:Caso10!S11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <f>SUM(Caso1:Caso10!T11)</f>
@@ -6495,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>SUM(Caso1:Caso10!A12)</f>
         <v>0</v>
@@ -6554,23 +7156,23 @@
       </c>
       <c r="O12">
         <f>SUM(Caso1:Caso10!O12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <f>SUM(Caso1:Caso10!P12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12">
         <f>SUM(Caso1:Caso10!Q12)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R12">
         <f>SUM(Caso1:Caso10!R12)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <f>SUM(Caso1:Caso10!S12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <f>SUM(Caso1:Caso10!T12)</f>
@@ -6609,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>SUM(Caso1:Caso10!A13)</f>
         <v>0</v>
@@ -6628,47 +7230,47 @@
       </c>
       <c r="E13">
         <f>SUM(Caso1:Caso10!E13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f>SUM(Caso1:Caso10!F13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f>SUM(Caso1:Caso10!G13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <f>SUM(Caso1:Caso10!H13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f>SUM(Caso1:Caso10!I13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f>SUM(Caso1:Caso10!J13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f>SUM(Caso1:Caso10!K13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <f>SUM(Caso1:Caso10!L13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f>SUM(Caso1:Caso10!M13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <f>SUM(Caso1:Caso10!N13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <f>SUM(Caso1:Caso10!O13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <f>SUM(Caso1:Caso10!P13)</f>
@@ -6680,11 +7282,11 @@
       </c>
       <c r="R13">
         <f>SUM(Caso1:Caso10!R13)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <f>SUM(Caso1:Caso10!S13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <f>SUM(Caso1:Caso10!T13)</f>
@@ -6723,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>SUM(Caso1:Caso10!A14)</f>
         <v>0</v>
@@ -6742,47 +7344,47 @@
       </c>
       <c r="E14">
         <f>SUM(Caso1:Caso10!E14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f>SUM(Caso1:Caso10!F14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f>SUM(Caso1:Caso10!G14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f>SUM(Caso1:Caso10!H14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f>SUM(Caso1:Caso10!I14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f>SUM(Caso1:Caso10!J14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f>SUM(Caso1:Caso10!K14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f>SUM(Caso1:Caso10!L14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f>SUM(Caso1:Caso10!M14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f>SUM(Caso1:Caso10!N14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <f>SUM(Caso1:Caso10!O14)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P14">
         <f>SUM(Caso1:Caso10!P14)</f>
@@ -6790,11 +7392,11 @@
       </c>
       <c r="Q14">
         <f>SUM(Caso1:Caso10!Q14)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <f>SUM(Caso1:Caso10!R14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <f>SUM(Caso1:Caso10!S14)</f>
@@ -6837,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>SUM(Caso1:Caso10!A15)</f>
         <v>0</v>
@@ -6888,15 +7490,15 @@
       </c>
       <c r="M15">
         <f>SUM(Caso1:Caso10!M15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <f>SUM(Caso1:Caso10!N15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15">
         <f>SUM(Caso1:Caso10!O15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P15">
         <f>SUM(Caso1:Caso10!P15)</f>
@@ -6904,11 +7506,11 @@
       </c>
       <c r="Q15">
         <f>SUM(Caso1:Caso10!Q15)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <f>SUM(Caso1:Caso10!R15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <f>SUM(Caso1:Caso10!S15)</f>
@@ -6951,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>SUM(Caso1:Caso10!A16)</f>
         <v>0</v>
@@ -7002,27 +7604,27 @@
       </c>
       <c r="M16">
         <f>SUM(Caso1:Caso10!M16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <f>SUM(Caso1:Caso10!N16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16">
         <f>SUM(Caso1:Caso10!O16)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P16">
         <f>SUM(Caso1:Caso10!P16)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16">
         <f>SUM(Caso1:Caso10!Q16)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <f>SUM(Caso1:Caso10!R16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <f>SUM(Caso1:Caso10!S16)</f>
@@ -7065,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>SUM(Caso1:Caso10!A17)</f>
         <v>0</v>
@@ -7112,11 +7714,11 @@
       </c>
       <c r="L17">
         <f>SUM(Caso1:Caso10!L17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <f>SUM(Caso1:Caso10!M17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <f>SUM(Caso1:Caso10!N17)</f>
@@ -7128,11 +7730,11 @@
       </c>
       <c r="P17">
         <f>SUM(Caso1:Caso10!P17)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17">
         <f>SUM(Caso1:Caso10!Q17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <f>SUM(Caso1:Caso10!R17)</f>
@@ -7179,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>SUM(Caso1:Caso10!A18)</f>
         <v>0</v>
@@ -7222,27 +7824,27 @@
       </c>
       <c r="K18">
         <f>SUM(Caso1:Caso10!K18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <f>SUM(Caso1:Caso10!L18)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18">
         <f>SUM(Caso1:Caso10!M18)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <f>SUM(Caso1:Caso10!N18)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O18">
         <f>SUM(Caso1:Caso10!O18)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <f>SUM(Caso1:Caso10!P18)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q18">
         <f>SUM(Caso1:Caso10!Q18)</f>
@@ -7293,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>SUM(Caso1:Caso10!A19)</f>
         <v>0</v>
@@ -7336,19 +7938,19 @@
       </c>
       <c r="K19">
         <f>SUM(Caso1:Caso10!K19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <f>SUM(Caso1:Caso10!L19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <f>SUM(Caso1:Caso10!M19)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <f>SUM(Caso1:Caso10!N19)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <f>SUM(Caso1:Caso10!O19)</f>
@@ -7407,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>SUM(Caso1:Caso10!A20)</f>
         <v>0</v>
@@ -7446,23 +8048,23 @@
       </c>
       <c r="J20">
         <f>SUM(Caso1:Caso10!J20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <f>SUM(Caso1:Caso10!K20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <f>SUM(Caso1:Caso10!L20)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M20">
         <f>SUM(Caso1:Caso10!M20)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <f>SUM(Caso1:Caso10!N20)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20">
         <f>SUM(Caso1:Caso10!O20)</f>
@@ -7521,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>SUM(Caso1:Caso10!A21)</f>
         <v>0</v>
@@ -7560,11 +8162,11 @@
       </c>
       <c r="J21">
         <f>SUM(Caso1:Caso10!J21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <f>SUM(Caso1:Caso10!K21)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <f>SUM(Caso1:Caso10!L21)</f>
@@ -7572,11 +8174,11 @@
       </c>
       <c r="M21">
         <f>SUM(Caso1:Caso10!M21)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <f>SUM(Caso1:Caso10!N21)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <f>SUM(Caso1:Caso10!O21)</f>
@@ -7635,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>SUM(Caso1:Caso10!A22)</f>
         <v>0</v>
@@ -7666,27 +8268,27 @@
       </c>
       <c r="H22">
         <f>SUM(Caso1:Caso10!H22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <f>SUM(Caso1:Caso10!I22)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <f>SUM(Caso1:Caso10!J22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K22">
         <f>SUM(Caso1:Caso10!K22)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <f>SUM(Caso1:Caso10!L22)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22">
         <f>SUM(Caso1:Caso10!M22)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <f>SUM(Caso1:Caso10!N22)</f>
@@ -7749,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>SUM(Caso1:Caso10!A23)</f>
         <v>0</v>
@@ -7780,23 +8382,23 @@
       </c>
       <c r="H23">
         <f>SUM(Caso1:Caso10!H23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <f>SUM(Caso1:Caso10!I23)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23">
         <f>SUM(Caso1:Caso10!J23)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <f>SUM(Caso1:Caso10!K23)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <f>SUM(Caso1:Caso10!L23)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <f>SUM(Caso1:Caso10!M23)</f>
@@ -7804,7 +8406,7 @@
       </c>
       <c r="N23">
         <f>SUM(Caso1:Caso10!N23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23">
         <f>SUM(Caso1:Caso10!O23)</f>
@@ -7863,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>SUM(Caso1:Caso10!A24)</f>
         <v>0</v>
@@ -7886,15 +8488,15 @@
       </c>
       <c r="F24">
         <f>SUM(Caso1:Caso10!F24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <f>SUM(Caso1:Caso10!G24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <f>SUM(Caso1:Caso10!H24)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <f>SUM(Caso1:Caso10!I24)</f>
@@ -7902,11 +8504,11 @@
       </c>
       <c r="J24">
         <f>SUM(Caso1:Caso10!J24)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <f>SUM(Caso1:Caso10!K24)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <f>SUM(Caso1:Caso10!L24)</f>
@@ -7914,7 +8516,7 @@
       </c>
       <c r="M24">
         <f>SUM(Caso1:Caso10!M24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <f>SUM(Caso1:Caso10!N24)</f>
@@ -7977,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>SUM(Caso1:Caso10!A25)</f>
         <v>0</v>
@@ -8000,11 +8602,11 @@
       </c>
       <c r="F25">
         <f>SUM(Caso1:Caso10!F25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <f>SUM(Caso1:Caso10!G25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <f>SUM(Caso1:Caso10!H25)</f>
@@ -8012,15 +8614,15 @@
       </c>
       <c r="I25">
         <f>SUM(Caso1:Caso10!I25)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <f>SUM(Caso1:Caso10!J25)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <f>SUM(Caso1:Caso10!K25)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <f>SUM(Caso1:Caso10!L25)</f>
@@ -8028,7 +8630,7 @@
       </c>
       <c r="M25">
         <f>SUM(Caso1:Caso10!M25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <f>SUM(Caso1:Caso10!N25)</f>
@@ -8091,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>SUM(Caso1:Caso10!A26)</f>
         <v>0</v>
@@ -8126,19 +8728,19 @@
       </c>
       <c r="I26">
         <f>SUM(Caso1:Caso10!I26)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <f>SUM(Caso1:Caso10!J26)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <f>SUM(Caso1:Caso10!K26)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <f>SUM(Caso1:Caso10!L26)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <f>SUM(Caso1:Caso10!M26)</f>
@@ -8205,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>SUM(Caso1:Caso10!A27)</f>
         <v>0</v>
@@ -8244,15 +8846,15 @@
       </c>
       <c r="J27">
         <f>SUM(Caso1:Caso10!J27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <f>SUM(Caso1:Caso10!K27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <f>SUM(Caso1:Caso10!L27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <f>SUM(Caso1:Caso10!M27)</f>
@@ -8319,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>SUM(Caso1:Caso10!A28)</f>
         <v>0</v>
@@ -8358,15 +8960,15 @@
       </c>
       <c r="J28">
         <f>SUM(Caso1:Caso10!J28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <f>SUM(Caso1:Caso10!K28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <f>SUM(Caso1:Caso10!L28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <f>SUM(Caso1:Caso10!M28)</f>
@@ -8446,13 +9048,13 @@
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" customWidth="1"/>
+    <col min="1" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -8538,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8624,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8710,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8796,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8882,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8968,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9054,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9140,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -9226,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9312,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -9398,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -9484,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -9570,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -9656,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -9742,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -9828,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -9914,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -10000,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -10086,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -10172,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -10258,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -10344,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -10430,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -10516,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -10602,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -10688,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -10774,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -10873,12 +11475,12 @@
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -10964,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11050,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11136,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11222,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -11308,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -11394,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11480,7 +12082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -11566,7 +12168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -11652,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11738,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -11824,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -11910,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -11996,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -12082,7 +12684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -12168,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -12254,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -12340,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -12426,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -12512,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -12598,7 +13200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -12684,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -12770,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -12856,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -12942,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -13028,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -13114,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -13200,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -13299,12 +13901,12 @@
       <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -13390,7 +13992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13476,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13562,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13648,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13734,7 +14336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -13820,7 +14422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -13906,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -13992,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -14078,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -14164,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -14250,7 +14852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -14336,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -14422,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -14508,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -14594,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -14680,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -14766,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -14852,7 +15454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -14938,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -15024,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -15110,7 +15712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -15196,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -15282,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -15368,7 +15970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -15454,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -15540,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -15626,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -15725,9 +16327,9 @@
       <selection activeCell="AB28" sqref="A1:AB28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15742,14 +16344,14 @@
       <selection activeCell="E5" sqref="E5:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="27" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.21875" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" customWidth="1"/>
+    <col min="1" max="27" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.28515625" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -15835,7 +16437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15921,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -16007,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -16093,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -16179,7 +16781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -16265,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -16351,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -16437,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -16523,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -16609,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -16695,7 +17297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -16781,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -16867,7 +17469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -16953,7 +17555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -17039,7 +17641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -17125,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -17211,7 +17813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -17297,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -17383,7 +17985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -17469,7 +18071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -17555,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -17641,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -17727,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -17813,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -17899,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -17985,7 +18587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -18071,7 +18673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -18170,12 +18772,12 @@
       <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -18261,7 +18863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18347,7 +18949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -18433,7 +19035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -18519,7 +19121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -18605,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -18691,7 +19293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -18777,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -18863,7 +19465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -18949,7 +19551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -19035,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -19121,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -19207,7 +19809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -19293,7 +19895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -19379,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -19465,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -19551,7 +20153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -19637,7 +20239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -19723,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -19809,7 +20411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -19895,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -19981,7 +20583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -20067,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -20153,7 +20755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -20239,7 +20841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -20325,7 +20927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -20411,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -20497,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -20593,16 +21195,16 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView zoomScale="52" workbookViewId="0">
-      <selection activeCell="AF31" sqref="AF31"/>
+      <selection activeCell="AI58" sqref="AI58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.88671875" customWidth="1"/>
+    <col min="1" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -20688,7 +21290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20774,7 +21376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -20860,7 +21462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -20946,7 +21548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -21032,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -21046,43 +21648,43 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21118,7 +21720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -21132,13 +21734,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -21170,14 +21772,14 @@
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7">
-        <v>1</v>
+      <c r="R7" s="1">
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -21204,7 +21806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -21227,28 +21829,28 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -21257,13 +21859,13 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -21290,7 +21892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -21337,19 +21939,19 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -21376,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -21420,10 +22022,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -21432,10 +22034,10 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -21462,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -21506,19 +22108,19 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -21548,7 +22150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -21592,19 +22194,19 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -21634,7 +22236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -21675,10 +22277,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -21687,10 +22289,10 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -21720,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -21761,19 +22363,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -21806,7 +22408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -21844,22 +22446,22 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -21892,7 +22494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -21930,22 +22532,22 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -21978,7 +22580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -22013,10 +22615,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -22025,10 +22627,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -22064,7 +22666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -22096,22 +22698,22 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -22150,7 +22752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -22182,22 +22784,22 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -22236,7 +22838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -22265,22 +22867,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -22322,7 +22924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -22351,22 +22953,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -22408,7 +23010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -22431,13 +23033,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -22446,13 +23048,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -22494,7 +23096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -22517,22 +23119,22 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -22580,7 +23182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -22597,25 +23199,25 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -22666,7 +23268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -22683,25 +23285,25 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -22752,7 +23354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -22778,10 +23380,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -22838,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -22924,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -23023,12 +23625,12 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="28" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -23114,7 +23716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -23200,7 +23802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -23286,7 +23888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -23372,7 +23974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -23458,7 +24060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -23544,7 +24146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -23630,7 +24232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -23716,7 +24318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -23802,7 +24404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -23888,7 +24490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -23974,7 +24576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -24060,7 +24662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -24146,7 +24748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -24232,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -24318,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -24404,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -24490,7 +25092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -24576,7 +25178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -24662,7 +25264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -24748,7 +25350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -24834,7 +25436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -24920,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -25006,7 +25608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -25092,7 +25694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -25178,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -25264,7 +25866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -25350,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
